--- a/biology/Médecine/Nicolas_Deleau/Nicolas_Deleau.xlsx
+++ b/biology/Médecine/Nicolas_Deleau/Nicolas_Deleau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicolas Deleau, né le 29 avril 1797 à Vézelise, décédé le 30 novembre 1862 à Larchant, est un médecin français, précurseur du traitement des maladies de l'audition et de la surdité .
 </t>
@@ -511,7 +523,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'une ancienne famille bourgeoise originaire de Fécocourt en Lorraine, Nicolas Deleau était né à Vézelise, près de Vaudémont, où sa famille possédait l'Hôtel de Tavagny.
 Son père, Jean-Noël Deleau, bourgeois de Vézelise et praticien, était propriétaire d'une auberge, et sa mère, Élisabeth Bottin, descendait d'une famille de médecins militaires.
@@ -545,7 +559,9 @@
           <t>Un médecin précurseur dans le traitement de la surdité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Reçu docteur en médecine le 23 juin 1818, quelques mois avant son frère aîné Joseph, Nicolas Deleau exerça tout d'abord son art à Vézelise.
 Après quatre années de médecine civile, il aborda le traitement de la surdité. 
@@ -582,7 +598,9 @@
           <t>Mariage et postérité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicolas Deleau avait épousé en janvier 1820 Béatrix-Victoire Sauce, fille de Jean-Baptiste Sauce, procureur-syndic de Varennes, lequel avait accueilli la famille royale lors de son échappée du 21 juin 1792. 
 Très royaliste, le docteur Deleau s'attacha dès lors à défendre la mémoire de son beau-père devant les accusations injustement portées par les premiers historiens de la Révolution française. 
@@ -616,7 +634,9 @@
           <t>Le Marais de Larchant</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Acquéreur en 1840 de la propriété du Marais, à Larchant, Nicolas Deleau s'était pris d’intérêt pour l’agriculture et l’aménagement de son domaine, et tenta d’assécher le marais pour en faire des prairies verdoyantes et améliorer la qualité des terres. 
 C’est Léon Deleau, son fils cadet, futur maire de Larchant, qui hérita de la propriété du Marais.
@@ -648,7 +668,9 @@
           <t>Publications médicales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Dissertation sur la cause prochaine de la fièvre adynamique ou putride (1818)
 Aperçu sur l'abus du vomissement provoqué dans les maladies, avec des réflexions pour venir à l'appui de la doctrine physiologique de M. Broussais (1820)
@@ -697,7 +719,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Encyclopédie biographique du XIXe siècle - tome 9 -  Médecins célèbres, M. de Lansac, Paris, 1845.
 Les médecins de Paris jugés sur leurs œuvres, C. Sachaile de la Barre, Paris, 1845.
